--- a/common/FriendFavor.xlsx
+++ b/common/FriendFavor.xlsx
@@ -14,28 +14,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>道具id</t>
   </si>
   <si>
-    <t>知交1喜好
-第2位为知交id</t>
+    <t>普通好感值</t>
   </si>
   <si>
-    <t>知交2喜好</t>
+    <t>喜好好感值</t>
   </si>
   <si>
-    <t>知交3喜好</t>
-  </si>
-  <si>
-    <t>知交4喜好</t>
-  </si>
-  <si>
-    <t>知交5喜好</t>
+    <t>厌恶好感值</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">item_id </t>
     </r>
     <r>
@@ -52,7 +52,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">friend_1_favor </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">common_value </t>
     </r>
     <r>
       <rPr>
@@ -68,7 +75,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">friend_2_favor </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">like_value </t>
     </r>
     <r>
       <rPr>
@@ -84,39 +98,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">friend_3_favor </t>
-    </r>
-    <r>
       <rPr>
-        <i/>
-        <u/>
+        <b/>
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">friend_4_favor </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">friend_5_favor </t>
+      <t xml:space="preserve">abominate_value </t>
     </r>
     <r>
       <rPr>
@@ -136,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -169,41 +158,55 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,46 +218,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,36 +242,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +264,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -321,7 +310,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,187 +331,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,6 +530,59 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,59 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -656,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,137 +651,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,6 +795,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1141,20 +1130,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I8:I9"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.75" spans="1:6">
+    <row r="1" ht="17.25" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1167,431 +1158,299 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="32.25" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <v>107001</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <v>107002</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4">
         <v>107003</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="4">
         <v>107004</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4">
         <v>107005</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>8</v>
       </c>
       <c r="C7" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>8</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4">
         <v>107006</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8</v>
-      </c>
-      <c r="F8" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4">
         <v>107007</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4">
-        <v>8</v>
-      </c>
-      <c r="F9" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="4">
         <v>107008</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4">
         <v>107009</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5">
-        <v>6</v>
-      </c>
-      <c r="F11" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" s="7">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4">
         <v>107010</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4">
         <v>107011</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4">
         <v>107012</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="5">
-        <v>8</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="C14" s="7">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4">
         <v>107013</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <v>107014</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>10</v>
       </c>
       <c r="C16" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4">
-        <v>10</v>
-      </c>
-      <c r="F16" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4">
         <v>107015</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>20</v>
       </c>
-      <c r="C17" s="5">
-        <v>20</v>
-      </c>
-      <c r="D17" s="5">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="C17" s="7">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>107016</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>14</v>
       </c>
       <c r="C18" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>14</v>
-      </c>
-      <c r="E18" s="4">
-        <v>14</v>
-      </c>
-      <c r="F18" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>107017</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="5">
         <v>14</v>
       </c>
       <c r="C19" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>107018</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <v>14</v>
       </c>
       <c r="C20" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>107019</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="5">
         <v>20</v>
       </c>
       <c r="C21" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4">
-        <v>20</v>
-      </c>
-      <c r="F21" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>107020</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D22" s="4">
-        <v>20</v>
-      </c>
-      <c r="E22" s="4">
-        <v>20</v>
-      </c>
-      <c r="F22" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/common/FriendFavor.xlsx
+++ b/common/FriendFavor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="24315" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="FavorItem" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>道具id</t>
   </si>
@@ -29,14 +29,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">item_id </t>
+      <t xml:space="preserve">id </t>
     </r>
     <r>
       <rPr>
@@ -125,9 +118,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -159,6 +152,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -166,45 +189,68 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,17 +264,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,68 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -331,12 +324,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -344,168 +499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,46 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +566,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -617,17 +590,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,12 +1121,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1145,7 +1138,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:4">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="32.25" spans="1:4">
+    <row r="2" ht="31.5" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
